--- a/ValueSet-immunosuppressive-permament-medications.xlsx
+++ b/ValueSet-immunosuppressive-permament-medications.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>Property</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Imunosuppresive medications</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -492,26 +495,28 @@
       <c r="A11" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +538,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>19</v>
@@ -541,130 +546,130 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>19</v>
@@ -694,50 +699,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +764,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>19</v>
@@ -767,90 +772,90 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-immunosuppressive-permament-medications.xlsx
+++ b/ValueSet-immunosuppressive-permament-medications.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>Property</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Immunosuppressive medications</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -492,26 +495,28 @@
       <c r="A11" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +538,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>19</v>
@@ -541,130 +546,130 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>19</v>
@@ -694,50 +699,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +764,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>19</v>
@@ -767,90 +772,90 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-immunosuppressive-permament-medications.xlsx
+++ b/ValueSet-immunosuppressive-permament-medications.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
     <sheet name="Include from Anatomisch-thera" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from NapkonPediatrics" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from napkon-immunosup" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -77,7 +77,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Immunosuppressive medications</t>
+    <t>Imunosuppresive medications</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -269,7 +269,7 @@
     <t>Substance with B cell activating factor inhibitor mechanism of action (substance)</t>
   </si>
   <si>
-    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/CodeSystem/napkon-pediatrics-module</t>
+    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/CodeSystem/napkon-immunosuppresive-medications</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-immunosuppressive-permament-medications.xlsx
+++ b/ValueSet-immunosuppressive-permament-medications.xlsx
@@ -107,12 +107,24 @@
     <t>Substance with calcineurin inhibitor mechanism of action (substance)</t>
   </si>
   <si>
+    <t>372785000</t>
+  </si>
+  <si>
+    <t>Antimetabolite (substance)</t>
+  </si>
+  <si>
     <t>372669002</t>
   </si>
   <si>
     <t>Alkylating agent (substance)</t>
   </si>
   <si>
+    <t>420693002</t>
+  </si>
+  <si>
+    <t>Substance with tumor necrosis factor alpha inhibitor mechanism of action (substance)</t>
+  </si>
+  <si>
     <t>430866006</t>
   </si>
   <si>
@@ -143,6 +155,12 @@
     <t>Antithymocyte immunoglobulin (substance)</t>
   </si>
   <si>
+    <t>704312008</t>
+  </si>
+  <si>
+    <t>Substance with Janus kinase inhibitor mechanism of action (substance)</t>
+  </si>
+  <si>
     <t>372917005</t>
   </si>
   <si>
@@ -194,79 +212,61 @@
     <t>Mammalian target of rapamycin (mTOR)-Kinase-Inhibitoren</t>
   </si>
   <si>
-    <t>L01B</t>
-  </si>
-  <si>
-    <t>ANTIMETABOLITEN</t>
-  </si>
-  <si>
-    <t>L04AB</t>
-  </si>
-  <si>
-    <t>Tumornekrosefaktor alpha (TNF-alpha)-Inhibitoren</t>
-  </si>
-  <si>
-    <t>L01EJ</t>
-  </si>
-  <si>
-    <t>Janus-assoziierte Kinase (JAK)-Inhibitoren</t>
-  </si>
-  <si>
     <t>http://fhir.de/CodeSystem/bfarm/atc</t>
   </si>
   <si>
     <t>000001</t>
   </si>
   <si>
-    <t>Sphingosine analogue (substance)</t>
+    <t>Sphingosine analogue</t>
   </si>
   <si>
     <t>000002</t>
   </si>
   <si>
-    <t>Substance with interleukin 2 receptor antagonist mechanism of action (substance)</t>
+    <t>Interleukin 2 receptor antagonist</t>
   </si>
   <si>
     <t>000003</t>
   </si>
   <si>
-    <t>Substance with interleukin 17 receptor antagonist mechanism of action (substance)</t>
+    <t>Interleukin 17 receptor antagonist</t>
   </si>
   <si>
     <t>000004</t>
   </si>
   <si>
-    <t>Anti-CD20 antibody (substance)</t>
+    <t>Anti-CD20 antibody</t>
   </si>
   <si>
     <t>000005</t>
   </si>
   <si>
-    <t>Anti-CD52 antibody (substance)</t>
+    <t>Anti-CD52 antibody</t>
   </si>
   <si>
     <t>000006</t>
   </si>
   <si>
-    <t>Anti-CD3 antibody (substance)</t>
+    <t>Anti-CD3 antibody</t>
   </si>
   <si>
     <t>000007</t>
   </si>
   <si>
-    <t>Anti-CD3/CD19 antibody (substance)</t>
+    <t>Anti-CD3/CD19 antibody</t>
   </si>
   <si>
     <t>000008</t>
   </si>
   <si>
-    <t>Substance with Integrin inhibitor mechanism of action (substance)</t>
+    <t>Integrin inhibitor</t>
   </si>
   <si>
     <t>000009</t>
   </si>
   <si>
-    <t>Substance with B cell activating factor inhibitor mechanism of action (substance)</t>
+    <t>B cell activating factor inhibitor</t>
   </si>
   <si>
     <t>https://www.netzwerk-universitaetsmedizin.de/fhir/CodeSystem/napkon-immunosuppresive-medications</t>
@@ -526,7 +526,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -661,15 +661,39 @@
         <v>54</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +703,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,15 +723,15 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>60</v>
@@ -718,30 +742,6 @@
         <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s" s="2">
         <v>65</v>
       </c>
     </row>
@@ -844,15 +844,15 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>84</v>

--- a/ValueSet-immunosuppressive-permament-medications.xlsx
+++ b/ValueSet-immunosuppressive-permament-medications.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
     <sheet name="Include from Anatomisch-thera" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from napkon-immunosup" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from NapkonPediatrics" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -269,7 +269,7 @@
     <t>B cell activating factor inhibitor</t>
   </si>
   <si>
-    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/CodeSystem/napkon-immunosuppresive-medications</t>
+    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/CodeSystem/napkon-pediatrics-module</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-immunosuppressive-permament-medications.xlsx
+++ b/ValueSet-immunosuppressive-permament-medications.xlsx
@@ -8,14 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Anatomisch-thera" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from NapkonPediatrics" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from NapkonPediatrics" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>Property</t>
   </si>
@@ -185,18 +184,6 @@
     <t>Other (qualifier value)</t>
   </si>
   <si>
-    <t>260413007</t>
-  </si>
-  <si>
-    <t>None (qualifier value)</t>
-  </si>
-  <si>
-    <t>261665006</t>
-  </si>
-  <si>
-    <t>Unknown (qualifier value)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -206,13 +193,10 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>L01EG</t>
-  </si>
-  <si>
-    <t>Mammalian target of rapamycin (mTOR)-Kinase-Inhibitoren</t>
-  </si>
-  <si>
-    <t>http://fhir.de/CodeSystem/bfarm/atc</t>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>Mammalian target of rapamycin (mTOR)-Kinase inhibitor</t>
   </si>
   <si>
     <t>000001</t>
@@ -526,7 +510,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -669,31 +653,15 @@
         <v>56</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +671,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -723,139 +691,98 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>84</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
